--- a/Basededatos.xlsx
+++ b/Basededatos.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LESLIE\Downloads\Proyectos y practicas\Proyectos y practicas\ConsoleApp2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEXIS\Desktop\Cajero_Bancario\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F5CC9A-C032-4FED-8A6E-3F3990F2958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId3"/>
-    <sheet name="Evaluation Warning" sheetId="2" r:id="rId4"/>
-    <sheet name="Evaluation Warning (1)" sheetId="3" r:id="rId5"/>
-    <sheet name="Evaluation Warning (2)" sheetId="4" r:id="rId6"/>
-    <sheet name="Evaluation Warning (3)" sheetId="5" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Cliente</t>
   </si>
@@ -43,23 +39,14 @@
     <t>DNI</t>
   </si>
   <si>
-    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2023 Aspose Pty Ltd.</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>Alexis Herencia</t>
-  </si>
-  <si>
-    <t>73578388</t>
+    <t>Clave</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,26 +55,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="18"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -125,136 +98,29 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -528,22 +394,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N91"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="B2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.144285714285713" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.571428571428571" customWidth="1"/>
-    <col min="3" max="3" width="22.142857142857142" customWidth="1"/>
-    <col min="4" max="4" width="22.428571428571427" customWidth="1"/>
-    <col min="5" max="5" width="15.142857142857142" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,649 +420,651 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="15">
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6">
-        <v>251205</v>
-      </c>
-      <c r="F2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:6" ht="15">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" ht="15">
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="6"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:6" ht="15">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" ht="15">
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="2:5" ht="15">
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="2:14" ht="15">
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:5" ht="15">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" ht="15">
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="6"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:5" ht="15">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="2:5" ht="15">
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="2:5" ht="15">
+      <c r="E13" s="8"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="2:5" ht="15">
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="2:5" ht="15">
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" ht="15">
+      <c r="E16" s="8"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="2:5" ht="15">
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:5" ht="15">
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="2:5" ht="15">
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:5" ht="15">
+      <c r="E20" s="8"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:5" ht="15">
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:5" ht="15">
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="2:5" ht="15">
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5" ht="15">
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:5" ht="15">
+      <c r="E25" s="8"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="2:5" ht="15">
+      <c r="E26" s="8"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="2:5" ht="15">
+      <c r="E27" s="8"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="2:5" ht="15">
+      <c r="E28" s="8"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:5" ht="15">
+      <c r="E29" s="8"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="2:5" ht="15">
+      <c r="E30" s="8"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="2:5" ht="15">
+      <c r="E31" s="8"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="2:5" ht="15">
+      <c r="E32" s="8"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="2:5" ht="15">
+      <c r="E33" s="8"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="2:5" ht="15">
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="2:5" ht="15">
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="2:5" ht="15">
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="2:5" ht="15">
+      <c r="E37" s="8"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="2:5" ht="15">
+      <c r="E38" s="8"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="2:5" ht="15">
+      <c r="E39" s="8"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="2:5" ht="15">
+      <c r="E40" s="8"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="2:5" ht="15">
+      <c r="E41" s="8"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="2:5" ht="15">
+      <c r="E42" s="8"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="2:5" ht="15">
+      <c r="E43" s="8"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="2:5" ht="15">
+      <c r="E44" s="8"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="2:5" ht="15">
+      <c r="E45" s="8"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="2:5" ht="15">
+      <c r="E46" s="8"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="2:5" ht="15">
+      <c r="E47" s="8"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="2:5" ht="15">
+      <c r="E48" s="8"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="2:5" ht="15">
+      <c r="E49" s="8"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="2:5" ht="15">
+      <c r="E50" s="8"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="2:5" ht="15">
+      <c r="E51" s="8"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="2:5" ht="15">
+      <c r="E52" s="8"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="2:5" ht="15">
+      <c r="E53" s="8"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="2:5" ht="15">
+      <c r="E54" s="8"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="2:5" ht="15">
+      <c r="E55" s="8"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="2:5" ht="15">
+      <c r="E56" s="8"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="2:5" ht="15">
+      <c r="E57" s="8"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="2:5" ht="15">
+      <c r="E58" s="8"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="2:5" ht="15">
+      <c r="E59" s="8"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="2:5" ht="15">
+      <c r="E60" s="8"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="2:5" ht="15">
+      <c r="E61" s="8"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="2:5" ht="15">
+      <c r="E62" s="8"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="2:5" ht="15">
+      <c r="E63" s="8"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="2:5" ht="15">
+      <c r="E64" s="8"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="2:5" ht="15">
+      <c r="E65" s="8"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="2:5" ht="15">
+      <c r="E66" s="8"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="2:5" ht="15">
+      <c r="E67" s="8"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="2:5" ht="15">
+      <c r="E68" s="8"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="2:5" ht="15">
+      <c r="E69" s="8"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="2:5" ht="15">
+      <c r="E70" s="8"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="2:5" ht="15">
+      <c r="E71" s="8"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="2:5" ht="15">
+      <c r="E72" s="8"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="2:5" ht="15">
+      <c r="E73" s="8"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="2:5" ht="15">
+      <c r="E74" s="8"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="2:5" ht="15">
+      <c r="E75" s="8"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="2:5" ht="15">
+      <c r="E76" s="8"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="2:5" ht="15">
+      <c r="E77" s="8"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="2:5" ht="15">
+      <c r="E78" s="8"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="2:5" ht="15">
+      <c r="E79" s="8"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="2:5" ht="15">
+      <c r="E80" s="8"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="2:5" ht="15">
+      <c r="E81" s="8"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="2:5" ht="15">
+      <c r="E82" s="8"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="2:5" ht="15">
+      <c r="E83" s="8"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="2:5" ht="15">
+      <c r="E84" s="8"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="2:5" ht="15">
+      <c r="E85" s="8"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="2:5" ht="15">
+      <c r="E86" s="8"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="2:5" ht="15">
+      <c r="E87" s="8"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="2:5" ht="15">
+      <c r="E88" s="8"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="2:5" ht="15">
+      <c r="E89" s="8"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="2:5" ht="15">
+      <c r="E90" s="8"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="3:5" ht="15"/>
-    <row r="93" spans="3:5" ht="15"/>
-    <row r="94" spans="3:5" ht="15"/>
-    <row r="95" spans="3:5" ht="15"/>
-    <row r="96" spans="3:5" ht="15"/>
-    <row r="97" spans="3:5" ht="15"/>
-    <row r="98" spans="3:5" ht="15"/>
-    <row r="99" spans="3:5" ht="15"/>
-    <row r="100" spans="3:5" ht="15"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165104c8-6ac3-4c93-b7ed-78ab92e802dd}">
-  <dimension ref="A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03d4854a-75ae-4491-815a-51eb9d0d949e}">
-  <dimension ref="A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1bc2d082-c398-41e0-bf85-987f9d0724d1}">
-  <dimension ref="A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a1a6b721-99fd-4483-8640-a2b1dab082ce}">
-  <dimension ref="A5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>